--- a/experiments/Dye kinetics/8_11_22 dye kinetics/a488_5mM.xlsx
+++ b/experiments/Dye kinetics/8_11_22 dye kinetics/a488_5mM.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lencer 606 Tecan\Desktop\michael a\8_11_22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\AutoCIF\experiments\Dye kinetics\8_11_22 dye kinetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31DDC0C7-8B81-4B0E-B52C-C8134B9472ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545CE144-E093-4706-A0A7-D9580A7358F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1110" windowWidth="22890" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6979" uniqueCount="88">
   <si>
     <t>Method name: a488_bleach (Modified)</t>
   </si>
@@ -656,13 +668,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M830"/>
+  <dimension ref="A1:S830"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +693,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,7 +710,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -713,7 +727,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,7 +744,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -747,7 +761,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -764,7 +778,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -781,7 +795,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -798,7 +812,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -815,7 +829,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -832,7 +846,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -849,7 +863,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -866,7 +880,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -883,7 +897,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -896,7 +910,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -911,7 +925,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -925,6 +939,10 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
+      <c r="O16" t="str">
+        <f>K55</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2"/>
@@ -1188,7 +1206,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1205,7 +1223,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1224,7 +1242,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -1243,7 +1261,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -1262,7 +1280,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1279,7 +1297,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -1297,8 +1315,24 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="P38">
+        <f ca="1">OFFSET(B$35,ROW(A1)*13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f ca="1">OFFSET(K$43,ROW(A1)*13,0)</f>
+        <v>14470</v>
+      </c>
+      <c r="R38">
+        <f ca="1">OFFSET(L$43,ROW(A1)*13,0)</f>
+        <v>16494</v>
+      </c>
+      <c r="S38">
+        <f ca="1">OFFSET(M$43,ROW(A1)*13,0)</f>
+        <v>16027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -1316,8 +1350,24 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="P39">
+        <f ca="1">OFFSET(B$35,ROW(A2)*13,0)</f>
+        <v>9.3680000000000003</v>
+      </c>
+      <c r="Q39">
+        <f ca="1">OFFSET(K$43,ROW(A2)*13,0)</f>
+        <v>11673</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:R97" ca="1" si="0">OFFSET(L$43,ROW(A2)*13,0)</f>
+        <v>13409</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ref="S39:S97" ca="1" si="1">OFFSET(M$43,ROW(A2)*13,0)</f>
+        <v>12899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1335,8 +1385,24 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="P40">
+        <f t="shared" ref="P40:P97" ca="1" si="2">OFFSET(B$35,ROW(A3)*13,0)</f>
+        <v>19.353999999999999</v>
+      </c>
+      <c r="Q40">
+        <f ca="1">OFFSET(K$43,ROW(A3)*13,0)</f>
+        <v>9671</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ca="1" si="0"/>
+        <v>10951</v>
+      </c>
+      <c r="S40">
+        <f t="shared" ca="1" si="1"/>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -1354,8 +1420,24 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="P41">
+        <f t="shared" ca="1" si="2"/>
+        <v>29.353000000000002</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q104" ca="1" si="3">OFFSET(K$43,ROW(A4)*13,0)</f>
+        <v>7967</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ca="1" si="0"/>
+        <v>9031</v>
+      </c>
+      <c r="S41">
+        <f t="shared" ca="1" si="1"/>
+        <v>8593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1371,8 +1453,24 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="P42">
+        <f t="shared" ca="1" si="2"/>
+        <v>39.356000000000002</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ca="1" si="3"/>
+        <v>6617</v>
+      </c>
+      <c r="R42">
+        <f t="shared" ca="1" si="0"/>
+        <v>7618</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ca="1" si="1"/>
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1388,8 +1486,24 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="P43">
+        <f t="shared" ca="1" si="2"/>
+        <v>49.356000000000002</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" ca="1" si="3"/>
+        <v>5568</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ca="1" si="0"/>
+        <v>6480</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ca="1" si="1"/>
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1401,8 +1515,24 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="P44">
+        <f t="shared" ca="1" si="2"/>
+        <v>59.36</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ca="1" si="3"/>
+        <v>4810</v>
+      </c>
+      <c r="R44">
+        <f t="shared" ca="1" si="0"/>
+        <v>5478</v>
+      </c>
+      <c r="S44">
+        <f t="shared" ca="1" si="1"/>
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -1418,8 +1548,24 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="P45">
+        <f t="shared" ca="1" si="2"/>
+        <v>69.375</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ca="1" si="3"/>
+        <v>4117</v>
+      </c>
+      <c r="R45">
+        <f t="shared" ca="1" si="0"/>
+        <v>4743</v>
+      </c>
+      <c r="S45">
+        <f t="shared" ca="1" si="1"/>
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1431,8 +1577,24 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="P46">
+        <f t="shared" ca="1" si="2"/>
+        <v>79.355000000000004</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ca="1" si="3"/>
+        <v>3635</v>
+      </c>
+      <c r="R46">
+        <f t="shared" ca="1" si="0"/>
+        <v>4088</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ca="1" si="1"/>
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,8 +1608,24 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="P47">
+        <f t="shared" ca="1" si="2"/>
+        <v>89.367999999999995</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ca="1" si="3"/>
+        <v>3215</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ca="1" si="0"/>
+        <v>3636</v>
+      </c>
+      <c r="S47">
+        <f t="shared" ca="1" si="1"/>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
         <v>62</v>
       </c>
@@ -1463,8 +1641,24 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="P48">
+        <f t="shared" ca="1" si="2"/>
+        <v>99.355999999999995</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" ca="1" si="3"/>
+        <v>2880</v>
+      </c>
+      <c r="R48">
+        <f t="shared" ca="1" si="0"/>
+        <v>3238</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ca="1" si="1"/>
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="4" t="s">
         <v>63</v>
       </c>
@@ -1480,8 +1674,24 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="P49">
+        <f t="shared" ca="1" si="2"/>
+        <v>109.364</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" ca="1" si="3"/>
+        <v>2563</v>
+      </c>
+      <c r="R49">
+        <f t="shared" ca="1" si="0"/>
+        <v>2927</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ca="1" si="1"/>
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="4" t="s">
         <v>64</v>
       </c>
@@ -1497,8 +1707,24 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="P50">
+        <f t="shared" ca="1" si="2"/>
+        <v>119.367</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ca="1" si="3"/>
+        <v>2338</v>
+      </c>
+      <c r="R50">
+        <f t="shared" ca="1" si="0"/>
+        <v>2696</v>
+      </c>
+      <c r="S50">
+        <f t="shared" ca="1" si="1"/>
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="4" t="s">
         <v>65</v>
       </c>
@@ -1538,8 +1764,28 @@
       <c r="M51" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51">
+        <f>K56</f>
+        <v>14470</v>
+      </c>
+      <c r="P51">
+        <f t="shared" ca="1" si="2"/>
+        <v>129.36500000000001</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" ca="1" si="3"/>
+        <v>2176</v>
+      </c>
+      <c r="R51">
+        <f t="shared" ca="1" si="0"/>
+        <v>2466</v>
+      </c>
+      <c r="S51">
+        <f t="shared" ca="1" si="1"/>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="4" t="s">
         <v>78</v>
       </c>
@@ -1579,8 +1825,28 @@
       <c r="M52" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52">
+        <f>K69</f>
+        <v>11673</v>
+      </c>
+      <c r="P52">
+        <f t="shared" ca="1" si="2"/>
+        <v>139.36600000000001</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ca="1" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="R52">
+        <f t="shared" ca="1" si="0"/>
+        <v>2258</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ca="1" si="1"/>
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="4" t="s">
         <v>79</v>
       </c>
@@ -1620,8 +1886,28 @@
       <c r="M53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53">
+        <f>K82</f>
+        <v>9671</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ca="1" si="2"/>
+        <v>149.37100000000001</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ca="1" si="3"/>
+        <v>1868</v>
+      </c>
+      <c r="R53">
+        <f t="shared" ca="1" si="0"/>
+        <v>2143</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="4" t="s">
         <v>80</v>
       </c>
@@ -1661,8 +1947,28 @@
       <c r="M54" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54" t="str">
+        <f>K59</f>
+        <v/>
+      </c>
+      <c r="P54">
+        <f t="shared" ca="1" si="2"/>
+        <v>159.37</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ca="1" si="3"/>
+        <v>1780</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ca="1" si="0"/>
+        <v>1953</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ca="1" si="1"/>
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="4" t="s">
         <v>81</v>
       </c>
@@ -1702,8 +2008,24 @@
       <c r="M55" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="P55">
+        <f t="shared" ca="1" si="2"/>
+        <v>169.37200000000001</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" ca="1" si="3"/>
+        <v>1662</v>
+      </c>
+      <c r="R55">
+        <f t="shared" ca="1" si="0"/>
+        <v>1831</v>
+      </c>
+      <c r="S55">
+        <f t="shared" ca="1" si="1"/>
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="4" t="s">
         <v>82</v>
       </c>
@@ -1743,8 +2065,24 @@
       <c r="M56" s="1">
         <v>16027</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="P56">
+        <f t="shared" ca="1" si="2"/>
+        <v>179.37</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" ca="1" si="3"/>
+        <v>1598</v>
+      </c>
+      <c r="R56">
+        <f t="shared" ca="1" si="0"/>
+        <v>1731</v>
+      </c>
+      <c r="S56">
+        <f t="shared" ca="1" si="1"/>
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="4" t="s">
         <v>83</v>
       </c>
@@ -1784,8 +2122,24 @@
       <c r="M57" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="P57">
+        <f t="shared" ca="1" si="2"/>
+        <v>189.36799999999999</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" ca="1" si="3"/>
+        <v>1559</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ca="1" si="0"/>
+        <v>1593</v>
+      </c>
+      <c r="S57">
+        <f t="shared" ca="1" si="1"/>
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="4" t="s">
         <v>84</v>
       </c>
@@ -1825,8 +2179,24 @@
       <c r="M58" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="P58">
+        <f t="shared" ca="1" si="2"/>
+        <v>199.369</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" ca="1" si="3"/>
+        <v>1476</v>
+      </c>
+      <c r="R58">
+        <f t="shared" ca="1" si="0"/>
+        <v>1573</v>
+      </c>
+      <c r="S58">
+        <f t="shared" ca="1" si="1"/>
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="4" t="s">
         <v>85</v>
       </c>
@@ -1866,8 +2236,24 @@
       <c r="M59" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="P59">
+        <f t="shared" ca="1" si="2"/>
+        <v>209.36600000000001</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" ca="1" si="3"/>
+        <v>1396</v>
+      </c>
+      <c r="R59">
+        <f t="shared" ca="1" si="0"/>
+        <v>1515</v>
+      </c>
+      <c r="S59">
+        <f t="shared" ca="1" si="1"/>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1879,8 +2265,24 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="P60">
+        <f t="shared" ca="1" si="2"/>
+        <v>219.37100000000001</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" ca="1" si="3"/>
+        <v>1334</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ca="1" si="0"/>
+        <v>1409</v>
+      </c>
+      <c r="S60">
+        <f t="shared" ca="1" si="1"/>
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
@@ -1896,8 +2298,24 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="P61">
+        <f t="shared" ca="1" si="2"/>
+        <v>229.37</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ca="1" si="3"/>
+        <v>1299</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ca="1" si="0"/>
+        <v>1370</v>
+      </c>
+      <c r="S61">
+        <f t="shared" ca="1" si="1"/>
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="4" t="s">
         <v>63</v>
       </c>
@@ -1913,8 +2331,24 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="P62">
+        <f t="shared" ca="1" si="2"/>
+        <v>239.38200000000001</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ca="1" si="3"/>
+        <v>1282</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ca="1" si="0"/>
+        <v>1335</v>
+      </c>
+      <c r="S62">
+        <f t="shared" ca="1" si="1"/>
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="4" t="s">
         <v>64</v>
       </c>
@@ -1930,8 +2364,24 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="P63">
+        <f t="shared" ca="1" si="2"/>
+        <v>249.374</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ca="1" si="3"/>
+        <v>1231</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ca="1" si="0"/>
+        <v>1265</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ca="1" si="1"/>
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="4" t="s">
         <v>65</v>
       </c>
@@ -1971,8 +2421,24 @@
       <c r="M64" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="P64">
+        <f t="shared" ca="1" si="2"/>
+        <v>259.37200000000001</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ca="1" si="3"/>
+        <v>1196</v>
+      </c>
+      <c r="R64">
+        <f t="shared" ca="1" si="0"/>
+        <v>1221</v>
+      </c>
+      <c r="S64">
+        <f t="shared" ca="1" si="1"/>
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="4" t="s">
         <v>78</v>
       </c>
@@ -2012,8 +2478,24 @@
       <c r="M65" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="P65">
+        <f t="shared" ca="1" si="2"/>
+        <v>269.37799999999999</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" ca="1" si="3"/>
+        <v>1172</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ca="1" si="0"/>
+        <v>1234</v>
+      </c>
+      <c r="S65">
+        <f t="shared" ca="1" si="1"/>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="4" t="s">
         <v>79</v>
       </c>
@@ -2053,8 +2535,24 @@
       <c r="M66" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="P66">
+        <f t="shared" ca="1" si="2"/>
+        <v>279.37299999999999</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ca="1" si="3"/>
+        <v>1115</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ca="1" si="0"/>
+        <v>1176</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ca="1" si="1"/>
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
@@ -2094,8 +2592,24 @@
       <c r="M67" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="P67">
+        <f t="shared" ca="1" si="2"/>
+        <v>289.37200000000001</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ca="1" si="3"/>
+        <v>1134</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ca="1" si="0"/>
+        <v>1149</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ca="1" si="1"/>
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="4" t="s">
         <v>81</v>
       </c>
@@ -2135,8 +2649,24 @@
       <c r="M68" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="P68">
+        <f t="shared" ca="1" si="2"/>
+        <v>299.37700000000001</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ca="1" si="3"/>
+        <v>1065</v>
+      </c>
+      <c r="R68">
+        <f t="shared" ca="1" si="0"/>
+        <v>1115</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ca="1" si="1"/>
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="4" t="s">
         <v>82</v>
       </c>
@@ -2176,8 +2706,24 @@
       <c r="M69" s="1">
         <v>12899</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="P69">
+        <f t="shared" ca="1" si="2"/>
+        <v>309.36900000000003</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" ca="1" si="3"/>
+        <v>1079</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ca="1" si="0"/>
+        <v>1113</v>
+      </c>
+      <c r="S69">
+        <f t="shared" ca="1" si="1"/>
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="4" t="s">
         <v>83</v>
       </c>
@@ -2217,8 +2763,24 @@
       <c r="M70" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="P70">
+        <f t="shared" ca="1" si="2"/>
+        <v>319.37</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ca="1" si="3"/>
+        <v>1006</v>
+      </c>
+      <c r="R70">
+        <f t="shared" ca="1" si="0"/>
+        <v>1057</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ca="1" si="1"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="4" t="s">
         <v>84</v>
       </c>
@@ -2258,8 +2820,24 @@
       <c r="M71" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="P71">
+        <f t="shared" ca="1" si="2"/>
+        <v>329.37</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ca="1" si="3"/>
+        <v>1033</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ca="1" si="0"/>
+        <v>1039</v>
+      </c>
+      <c r="S71">
+        <f t="shared" ca="1" si="1"/>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="4" t="s">
         <v>85</v>
       </c>
@@ -2299,8 +2877,24 @@
       <c r="M72" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="P72">
+        <f t="shared" ca="1" si="2"/>
+        <v>339.36</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ca="1" si="3"/>
+        <v>1032</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ca="1" si="0"/>
+        <v>1023</v>
+      </c>
+      <c r="S72">
+        <f t="shared" ca="1" si="1"/>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2312,8 +2906,24 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="P73">
+        <f t="shared" ca="1" si="2"/>
+        <v>349.36099999999999</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ca="1" si="3"/>
+        <v>1006</v>
+      </c>
+      <c r="R73">
+        <f t="shared" ca="1" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="S73">
+        <f t="shared" ca="1" si="1"/>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="4" t="s">
         <v>62</v>
       </c>
@@ -2329,8 +2939,24 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="P74">
+        <f t="shared" ca="1" si="2"/>
+        <v>359.36099999999999</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" ca="1" si="3"/>
+        <v>967</v>
+      </c>
+      <c r="R74">
+        <f t="shared" ca="1" si="0"/>
+        <v>1011</v>
+      </c>
+      <c r="S74">
+        <f t="shared" ca="1" si="1"/>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="4" t="s">
         <v>63</v>
       </c>
@@ -2346,8 +2972,24 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="P75">
+        <f t="shared" ca="1" si="2"/>
+        <v>369.35700000000003</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" ca="1" si="3"/>
+        <v>990</v>
+      </c>
+      <c r="R75">
+        <f t="shared" ca="1" si="0"/>
+        <v>972</v>
+      </c>
+      <c r="S75">
+        <f t="shared" ca="1" si="1"/>
+        <v>963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="4" t="s">
         <v>64</v>
       </c>
@@ -2363,8 +3005,24 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="P76">
+        <f t="shared" ca="1" si="2"/>
+        <v>379.35700000000003</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" ca="1" si="3"/>
+        <v>973</v>
+      </c>
+      <c r="R76">
+        <f t="shared" ca="1" si="0"/>
+        <v>965</v>
+      </c>
+      <c r="S76">
+        <f t="shared" ca="1" si="1"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="4" t="s">
         <v>65</v>
       </c>
@@ -2404,8 +3062,24 @@
       <c r="M77" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="P77">
+        <f t="shared" ca="1" si="2"/>
+        <v>389.36200000000002</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" ca="1" si="3"/>
+        <v>949</v>
+      </c>
+      <c r="R77">
+        <f t="shared" ca="1" si="0"/>
+        <v>934</v>
+      </c>
+      <c r="S77">
+        <f t="shared" ca="1" si="1"/>
+        <v>913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
@@ -2445,8 +3119,24 @@
       <c r="M78" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="P78">
+        <f t="shared" ca="1" si="2"/>
+        <v>399.358</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" ca="1" si="3"/>
+        <v>909</v>
+      </c>
+      <c r="R78">
+        <f t="shared" ca="1" si="0"/>
+        <v>942</v>
+      </c>
+      <c r="S78">
+        <f t="shared" ca="1" si="1"/>
+        <v>929</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
@@ -2486,8 +3176,24 @@
       <c r="M79" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="P79">
+        <f t="shared" ca="1" si="2"/>
+        <v>409.37799999999999</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" ca="1" si="3"/>
+        <v>923</v>
+      </c>
+      <c r="R79">
+        <f t="shared" ca="1" si="0"/>
+        <v>943</v>
+      </c>
+      <c r="S79">
+        <f t="shared" ca="1" si="1"/>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
@@ -2527,8 +3233,24 @@
       <c r="M80" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="P80">
+        <f t="shared" ca="1" si="2"/>
+        <v>419.358</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" ca="1" si="3"/>
+        <v>915</v>
+      </c>
+      <c r="R80">
+        <f t="shared" ca="1" si="0"/>
+        <v>917</v>
+      </c>
+      <c r="S80">
+        <f t="shared" ca="1" si="1"/>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="4" t="s">
         <v>81</v>
       </c>
@@ -2568,8 +3290,24 @@
       <c r="M81" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="P81">
+        <f t="shared" ca="1" si="2"/>
+        <v>429.36099999999999</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" ca="1" si="3"/>
+        <v>899</v>
+      </c>
+      <c r="R81">
+        <f t="shared" ca="1" si="0"/>
+        <v>929</v>
+      </c>
+      <c r="S81">
+        <f t="shared" ca="1" si="1"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="4" t="s">
         <v>82</v>
       </c>
@@ -2609,8 +3347,24 @@
       <c r="M82" s="1">
         <v>10500</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="P82">
+        <f t="shared" ca="1" si="2"/>
+        <v>439.34</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" ca="1" si="3"/>
+        <v>891</v>
+      </c>
+      <c r="R82">
+        <f t="shared" ca="1" si="0"/>
+        <v>908</v>
+      </c>
+      <c r="S82">
+        <f t="shared" ca="1" si="1"/>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="4" t="s">
         <v>83</v>
       </c>
@@ -2650,8 +3404,24 @@
       <c r="M83" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="P83">
+        <f t="shared" ca="1" si="2"/>
+        <v>449.35300000000001</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" ca="1" si="3"/>
+        <v>894</v>
+      </c>
+      <c r="R83">
+        <f t="shared" ca="1" si="0"/>
+        <v>908</v>
+      </c>
+      <c r="S83">
+        <f t="shared" ca="1" si="1"/>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
@@ -2691,8 +3461,24 @@
       <c r="M84" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="P84">
+        <f t="shared" ca="1" si="2"/>
+        <v>459.35</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" ca="1" si="3"/>
+        <v>865</v>
+      </c>
+      <c r="R84">
+        <f t="shared" ca="1" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="S84">
+        <f t="shared" ca="1" si="1"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -2732,8 +3518,24 @@
       <c r="M85" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="P85">
+        <f t="shared" ca="1" si="2"/>
+        <v>469.34899999999999</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" ca="1" si="3"/>
+        <v>877</v>
+      </c>
+      <c r="R85">
+        <f t="shared" ca="1" si="0"/>
+        <v>855</v>
+      </c>
+      <c r="S85">
+        <f t="shared" ca="1" si="1"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2745,8 +3547,24 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="P86">
+        <f t="shared" ca="1" si="2"/>
+        <v>479.351</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" ca="1" si="3"/>
+        <v>840</v>
+      </c>
+      <c r="R86">
+        <f t="shared" ca="1" si="0"/>
+        <v>876</v>
+      </c>
+      <c r="S86">
+        <f t="shared" ca="1" si="1"/>
+        <v>852</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="4" t="s">
         <v>62</v>
       </c>
@@ -2762,8 +3580,24 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="P87">
+        <f t="shared" ca="1" si="2"/>
+        <v>489.34</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" ca="1" si="3"/>
+        <v>861</v>
+      </c>
+      <c r="R87">
+        <f t="shared" ca="1" si="0"/>
+        <v>876</v>
+      </c>
+      <c r="S87">
+        <f t="shared" ca="1" si="1"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="4" t="s">
         <v>63</v>
       </c>
@@ -2779,8 +3613,24 @@
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="P88">
+        <f t="shared" ca="1" si="2"/>
+        <v>499.32600000000002</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" ca="1" si="3"/>
+        <v>849</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ca="1" si="0"/>
+        <v>838</v>
+      </c>
+      <c r="S88">
+        <f t="shared" ca="1" si="1"/>
+        <v>864</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="4" t="s">
         <v>64</v>
       </c>
@@ -2796,8 +3646,24 @@
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="P89">
+        <f t="shared" ca="1" si="2"/>
+        <v>509.32799999999997</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" ca="1" si="3"/>
+        <v>862</v>
+      </c>
+      <c r="R89">
+        <f t="shared" ca="1" si="0"/>
+        <v>843</v>
+      </c>
+      <c r="S89">
+        <f t="shared" ca="1" si="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="4" t="s">
         <v>65</v>
       </c>
@@ -2837,8 +3703,24 @@
       <c r="M90" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="P90">
+        <f t="shared" ca="1" si="2"/>
+        <v>519.33199999999999</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ca="1" si="3"/>
+        <v>862</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ca="1" si="0"/>
+        <v>854</v>
+      </c>
+      <c r="S90">
+        <f t="shared" ca="1" si="1"/>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="4" t="s">
         <v>78</v>
       </c>
@@ -2878,8 +3760,24 @@
       <c r="M91" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="P91">
+        <f t="shared" ca="1" si="2"/>
+        <v>529.32799999999997</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" ca="1" si="3"/>
+        <v>844</v>
+      </c>
+      <c r="R91">
+        <f t="shared" ca="1" si="0"/>
+        <v>832</v>
+      </c>
+      <c r="S91">
+        <f t="shared" ca="1" si="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="4" t="s">
         <v>79</v>
       </c>
@@ -2919,8 +3817,24 @@
       <c r="M92" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="P92">
+        <f t="shared" ca="1" si="2"/>
+        <v>539.33100000000002</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" ca="1" si="3"/>
+        <v>812</v>
+      </c>
+      <c r="R92">
+        <f t="shared" ca="1" si="0"/>
+        <v>838</v>
+      </c>
+      <c r="S92">
+        <f t="shared" ca="1" si="1"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="4" t="s">
         <v>80</v>
       </c>
@@ -2960,8 +3874,24 @@
       <c r="M93" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="P93">
+        <f t="shared" ca="1" si="2"/>
+        <v>549.34100000000001</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" ca="1" si="3"/>
+        <v>826</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ca="1" si="0"/>
+        <v>851</v>
+      </c>
+      <c r="S93">
+        <f t="shared" ca="1" si="1"/>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="4" t="s">
         <v>81</v>
       </c>
@@ -3001,8 +3931,24 @@
       <c r="M94" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="P94">
+        <f t="shared" ca="1" si="2"/>
+        <v>559.33500000000004</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" ca="1" si="3"/>
+        <v>803</v>
+      </c>
+      <c r="R94">
+        <f t="shared" ca="1" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="S94">
+        <f t="shared" ca="1" si="1"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="4" t="s">
         <v>82</v>
       </c>
@@ -3042,8 +3988,24 @@
       <c r="M95" s="1">
         <v>8593</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="P95">
+        <f t="shared" ca="1" si="2"/>
+        <v>569.32899999999995</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ca="1" si="3"/>
+        <v>813</v>
+      </c>
+      <c r="R95">
+        <f t="shared" ca="1" si="0"/>
+        <v>811</v>
+      </c>
+      <c r="S95">
+        <f t="shared" ca="1" si="1"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="4" t="s">
         <v>83</v>
       </c>
@@ -3083,8 +4045,24 @@
       <c r="M96" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="P96">
+        <f t="shared" ca="1" si="2"/>
+        <v>579.34299999999996</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" ca="1" si="3"/>
+        <v>829</v>
+      </c>
+      <c r="R96">
+        <f t="shared" ca="1" si="0"/>
+        <v>805</v>
+      </c>
+      <c r="S96">
+        <f t="shared" ca="1" si="1"/>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="4" t="s">
         <v>84</v>
       </c>
@@ -3124,8 +4102,24 @@
       <c r="M97" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="P97">
+        <f t="shared" ca="1" si="2"/>
+        <v>589.33799999999997</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" ca="1" si="3"/>
+        <v>819</v>
+      </c>
+      <c r="R97">
+        <f t="shared" ca="1" si="0"/>
+        <v>823</v>
+      </c>
+      <c r="S97">
+        <f t="shared" ca="1" si="1"/>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="4" t="s">
         <v>85</v>
       </c>
@@ -3165,8 +4159,12 @@
       <c r="M98" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="Q98">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3178,8 +4176,12 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="Q99">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="4" t="s">
         <v>62</v>
       </c>
@@ -3195,8 +4197,12 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="Q100">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="4" t="s">
         <v>63</v>
       </c>
@@ -3212,8 +4218,12 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="Q101">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="4" t="s">
         <v>64</v>
       </c>
@@ -3229,8 +4239,12 @@
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="Q102">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="4" t="s">
         <v>65</v>
       </c>
@@ -3270,8 +4284,12 @@
       <c r="M103" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="Q103">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="4" t="s">
         <v>78</v>
       </c>
@@ -3311,8 +4329,12 @@
       <c r="M104" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="Q104">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="4" t="s">
         <v>79</v>
       </c>
@@ -3352,8 +4374,12 @@
       <c r="M105" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="Q105">
+        <f t="shared" ref="Q105:Q168" ca="1" si="4">OFFSET(K$43,ROW(A68)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="4" t="s">
         <v>80</v>
       </c>
@@ -3393,8 +4419,12 @@
       <c r="M106" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="Q106">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="4" t="s">
         <v>81</v>
       </c>
@@ -3434,8 +4464,12 @@
       <c r="M107" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="Q107">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="4" t="s">
         <v>82</v>
       </c>
@@ -3475,8 +4509,12 @@
       <c r="M108" s="1">
         <v>7184</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="Q108">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="4" t="s">
         <v>83</v>
       </c>
@@ -3516,8 +4554,12 @@
       <c r="M109" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="Q109">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="4" t="s">
         <v>84</v>
       </c>
@@ -3557,8 +4599,12 @@
       <c r="M110" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="Q110">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="4" t="s">
         <v>85</v>
       </c>
@@ -3598,8 +4644,12 @@
       <c r="M111" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="Q111">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3611,8 +4661,12 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="Q112">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="4" t="s">
         <v>62</v>
       </c>
@@ -3628,8 +4682,12 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="Q113">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="4" t="s">
         <v>63</v>
       </c>
@@ -3645,8 +4703,12 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="Q114">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="4" t="s">
         <v>64</v>
       </c>
@@ -3662,8 +4724,12 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="Q115">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="4" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +4769,12 @@
       <c r="M116" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="Q116">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="4" t="s">
         <v>78</v>
       </c>
@@ -3744,8 +4814,12 @@
       <c r="M117" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="Q117">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="4" t="s">
         <v>79</v>
       </c>
@@ -3785,8 +4859,12 @@
       <c r="M118" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="Q118">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="4" t="s">
         <v>80</v>
       </c>
@@ -3826,8 +4904,12 @@
       <c r="M119" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="Q119">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" s="4" t="s">
         <v>81</v>
       </c>
@@ -3867,8 +4949,12 @@
       <c r="M120" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="Q120">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
       <c r="A121" s="4" t="s">
         <v>82</v>
       </c>
@@ -3908,8 +4994,12 @@
       <c r="M121" s="1">
         <v>6052</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="Q121">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
       <c r="A122" s="4" t="s">
         <v>83</v>
       </c>
@@ -3949,8 +5039,12 @@
       <c r="M122" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="Q122">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
       <c r="A123" s="4" t="s">
         <v>84</v>
       </c>
@@ -3990,8 +5084,12 @@
       <c r="M123" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="Q123">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="4" t="s">
         <v>85</v>
       </c>
@@ -4031,8 +5129,12 @@
       <c r="M124" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="Q124">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4044,8 +5146,12 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="Q125">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
       <c r="A126" s="4" t="s">
         <v>62</v>
       </c>
@@ -4061,8 +5167,12 @@
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="Q126">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
       <c r="A127" s="4" t="s">
         <v>63</v>
       </c>
@@ -4078,8 +5188,12 @@
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="Q127">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
       <c r="A128" s="4" t="s">
         <v>64</v>
       </c>
@@ -4095,8 +5209,12 @@
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="Q128">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
       <c r="A129" s="4" t="s">
         <v>65</v>
       </c>
@@ -4136,8 +5254,12 @@
       <c r="M129" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="Q129">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
       <c r="A130" s="4" t="s">
         <v>78</v>
       </c>
@@ -4177,8 +5299,12 @@
       <c r="M130" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="Q130">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
       <c r="A131" s="4" t="s">
         <v>79</v>
       </c>
@@ -4218,8 +5344,12 @@
       <c r="M131" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="Q131">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
       <c r="A132" s="4" t="s">
         <v>80</v>
       </c>
@@ -4259,8 +5389,12 @@
       <c r="M132" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="Q132">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
       <c r="A133" s="4" t="s">
         <v>81</v>
       </c>
@@ -4300,8 +5434,12 @@
       <c r="M133" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="Q133">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
       <c r="A134" s="4" t="s">
         <v>82</v>
       </c>
@@ -4341,8 +5479,12 @@
       <c r="M134" s="1">
         <v>5135</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="Q134">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
       <c r="A135" s="4" t="s">
         <v>83</v>
       </c>
@@ -4382,8 +5524,12 @@
       <c r="M135" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="Q135">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
       <c r="A136" s="4" t="s">
         <v>84</v>
       </c>
@@ -4423,8 +5569,12 @@
       <c r="M136" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="Q136">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
       <c r="A137" s="4" t="s">
         <v>85</v>
       </c>
@@ -4464,8 +5614,12 @@
       <c r="M137" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="Q137">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4477,8 +5631,12 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="Q138">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
       <c r="A139" s="4" t="s">
         <v>62</v>
       </c>
@@ -4494,8 +5652,12 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="Q139">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
       <c r="A140" s="4" t="s">
         <v>63</v>
       </c>
@@ -4511,8 +5673,12 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="Q140">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
       <c r="A141" s="4" t="s">
         <v>64</v>
       </c>
@@ -4528,8 +5694,12 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="Q141">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
       <c r="A142" s="4" t="s">
         <v>65</v>
       </c>
@@ -4569,8 +5739,12 @@
       <c r="M142" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="Q142">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
       <c r="A143" s="4" t="s">
         <v>78</v>
       </c>
@@ -4610,8 +5784,12 @@
       <c r="M143" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="Q143">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
       <c r="A144" s="4" t="s">
         <v>79</v>
       </c>
@@ -4651,8 +5829,12 @@
       <c r="M144" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="Q144">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
       <c r="A145" s="4" t="s">
         <v>80</v>
       </c>
@@ -4692,8 +5874,12 @@
       <c r="M145" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="Q145">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
       <c r="A146" s="4" t="s">
         <v>81</v>
       </c>
@@ -4733,8 +5919,12 @@
       <c r="M146" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="Q146">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
       <c r="A147" s="4" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +5964,12 @@
       <c r="M147" s="1">
         <v>4479</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="Q147">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
       <c r="A148" s="4" t="s">
         <v>83</v>
       </c>
@@ -4815,8 +6009,12 @@
       <c r="M148" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13">
+      <c r="Q148">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
       <c r="A149" s="4" t="s">
         <v>84</v>
       </c>
@@ -4856,8 +6054,12 @@
       <c r="M149" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:13">
+      <c r="Q149">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
       <c r="A150" s="4" t="s">
         <v>85</v>
       </c>
@@ -4897,8 +6099,12 @@
       <c r="M150" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13">
+      <c r="Q150">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4910,8 +6116,12 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="1:13">
+      <c r="Q151">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
       <c r="A152" s="4" t="s">
         <v>62</v>
       </c>
@@ -4927,8 +6137,12 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:13">
+      <c r="Q152">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
       <c r="A153" s="4" t="s">
         <v>63</v>
       </c>
@@ -4944,8 +6158,12 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="Q153">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
       <c r="A154" s="4" t="s">
         <v>64</v>
       </c>
@@ -4961,8 +6179,12 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:13">
+      <c r="Q154">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
       <c r="A155" s="4" t="s">
         <v>65</v>
       </c>
@@ -5002,8 +6224,12 @@
       <c r="M155" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="156" spans="1:13">
+      <c r="Q155">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
       <c r="A156" s="4" t="s">
         <v>78</v>
       </c>
@@ -5043,8 +6269,12 @@
       <c r="M156" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:13">
+      <c r="Q156">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
       <c r="A157" s="4" t="s">
         <v>79</v>
       </c>
@@ -5084,8 +6314,12 @@
       <c r="M157" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:13">
+      <c r="Q157">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
       <c r="A158" s="4" t="s">
         <v>80</v>
       </c>
@@ -5125,8 +6359,12 @@
       <c r="M158" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:13">
+      <c r="Q158">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
       <c r="A159" s="4" t="s">
         <v>81</v>
       </c>
@@ -5166,8 +6404,12 @@
       <c r="M159" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:13">
+      <c r="Q159">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
       <c r="A160" s="4" t="s">
         <v>82</v>
       </c>
@@ -5207,8 +6449,12 @@
       <c r="M160" s="1">
         <v>3839</v>
       </c>
-    </row>
-    <row r="161" spans="1:13">
+      <c r="Q160">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
       <c r="A161" s="4" t="s">
         <v>83</v>
       </c>
@@ -5248,8 +6494,12 @@
       <c r="M161" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:13">
+      <c r="Q161">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
       <c r="A162" s="4" t="s">
         <v>84</v>
       </c>
@@ -5289,8 +6539,12 @@
       <c r="M162" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13">
+      <c r="Q162">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
       <c r="A163" s="4" t="s">
         <v>85</v>
       </c>
@@ -5330,8 +6584,12 @@
       <c r="M163" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="Q163">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5343,8 +6601,12 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="Q164">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
       <c r="A165" s="4" t="s">
         <v>62</v>
       </c>
@@ -5360,8 +6622,12 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="Q165">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
       <c r="A166" s="4" t="s">
         <v>63</v>
       </c>
@@ -5377,8 +6643,12 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="1:13">
+      <c r="Q166">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" s="4" t="s">
         <v>64</v>
       </c>
@@ -5394,8 +6664,12 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="Q167">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" s="4" t="s">
         <v>65</v>
       </c>
@@ -5435,8 +6709,12 @@
       <c r="M168" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="169" spans="1:13">
+      <c r="Q168">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" s="4" t="s">
         <v>78</v>
       </c>
@@ -5476,8 +6754,12 @@
       <c r="M169" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="Q169">
+        <f t="shared" ref="Q169:Q204" ca="1" si="5">OFFSET(K$43,ROW(A132)*13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" s="4" t="s">
         <v>79</v>
       </c>
@@ -5517,8 +6799,12 @@
       <c r="M170" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13">
+      <c r="Q170">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" s="4" t="s">
         <v>80</v>
       </c>
@@ -5558,8 +6844,12 @@
       <c r="M171" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:13">
+      <c r="Q171">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" s="4" t="s">
         <v>81</v>
       </c>
@@ -5599,8 +6889,12 @@
       <c r="M172" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13">
+      <c r="Q172">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" s="4" t="s">
         <v>82</v>
       </c>
@@ -5640,8 +6934,12 @@
       <c r="M173" s="1">
         <v>3420</v>
       </c>
-    </row>
-    <row r="174" spans="1:13">
+      <c r="Q173">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" s="4" t="s">
         <v>83</v>
       </c>
@@ -5681,8 +6979,12 @@
       <c r="M174" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:13">
+      <c r="Q174">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
       <c r="A175" s="4" t="s">
         <v>84</v>
       </c>
@@ -5722,8 +7024,12 @@
       <c r="M175" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:13">
+      <c r="Q175">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17">
       <c r="A176" s="4" t="s">
         <v>85</v>
       </c>
@@ -5763,8 +7069,12 @@
       <c r="M176" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:13">
+      <c r="Q176">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5776,8 +7086,12 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="1:13">
+      <c r="Q177">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17">
       <c r="A178" s="4" t="s">
         <v>62</v>
       </c>
@@ -5793,8 +7107,12 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="1:13">
+      <c r="Q178">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
       <c r="A179" s="4" t="s">
         <v>63</v>
       </c>
@@ -5810,8 +7128,12 @@
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
-    </row>
-    <row r="180" spans="1:13">
+      <c r="Q179">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
       <c r="A180" s="4" t="s">
         <v>64</v>
       </c>
@@ -5827,8 +7149,12 @@
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
-    </row>
-    <row r="181" spans="1:13">
+      <c r="Q180">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17">
       <c r="A181" s="4" t="s">
         <v>65</v>
       </c>
@@ -5868,8 +7194,12 @@
       <c r="M181" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="182" spans="1:13">
+      <c r="Q181">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
       <c r="A182" s="4" t="s">
         <v>78</v>
       </c>
@@ -5909,8 +7239,12 @@
       <c r="M182" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13">
+      <c r="Q182">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
       <c r="A183" s="4" t="s">
         <v>79</v>
       </c>
@@ -5950,8 +7284,12 @@
       <c r="M183" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13">
+      <c r="Q183">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
       <c r="A184" s="4" t="s">
         <v>80</v>
       </c>
@@ -5991,8 +7329,12 @@
       <c r="M184" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13">
+      <c r="Q184">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
       <c r="A185" s="4" t="s">
         <v>81</v>
       </c>
@@ -6032,8 +7374,12 @@
       <c r="M185" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13">
+      <c r="Q185">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
       <c r="A186" s="4" t="s">
         <v>82</v>
       </c>
@@ -6073,8 +7419,12 @@
       <c r="M186" s="1">
         <v>3006</v>
       </c>
-    </row>
-    <row r="187" spans="1:13">
+      <c r="Q186">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187" s="4" t="s">
         <v>83</v>
       </c>
@@ -6114,8 +7464,12 @@
       <c r="M187" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:13">
+      <c r="Q187">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17">
       <c r="A188" s="4" t="s">
         <v>84</v>
       </c>
@@ -6155,8 +7509,12 @@
       <c r="M188" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:13">
+      <c r="Q188">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
       <c r="A189" s="4" t="s">
         <v>85</v>
       </c>
@@ -6196,8 +7554,12 @@
       <c r="M189" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:13">
+      <c r="Q189">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6209,8 +7571,12 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="1:13">
+      <c r="Q190">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17">
       <c r="A191" s="4" t="s">
         <v>62</v>
       </c>
@@ -6226,8 +7592,12 @@
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
-    </row>
-    <row r="192" spans="1:13">
+      <c r="Q191">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17">
       <c r="A192" s="4" t="s">
         <v>63</v>
       </c>
@@ -6243,8 +7613,12 @@
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
-    </row>
-    <row r="193" spans="1:13">
+      <c r="Q192">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17">
       <c r="A193" s="4" t="s">
         <v>64</v>
       </c>
@@ -6260,8 +7634,12 @@
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="1:13">
+      <c r="Q193">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
       <c r="A194" s="4" t="s">
         <v>65</v>
       </c>
@@ -6301,8 +7679,12 @@
       <c r="M194" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="195" spans="1:13">
+      <c r="Q194">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17">
       <c r="A195" s="4" t="s">
         <v>78</v>
       </c>
@@ -6342,8 +7724,12 @@
       <c r="M195" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:13">
+      <c r="Q195">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17">
       <c r="A196" s="4" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +7769,12 @@
       <c r="M196" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:13">
+      <c r="Q196">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17">
       <c r="A197" s="4" t="s">
         <v>80</v>
       </c>
@@ -6424,8 +7814,12 @@
       <c r="M197" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13">
+      <c r="Q197">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17">
       <c r="A198" s="4" t="s">
         <v>81</v>
       </c>
@@ -6465,8 +7859,12 @@
       <c r="M198" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13">
+      <c r="Q198">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17">
       <c r="A199" s="4" t="s">
         <v>82</v>
       </c>
@@ -6506,8 +7904,12 @@
       <c r="M199" s="1">
         <v>2734</v>
       </c>
-    </row>
-    <row r="200" spans="1:13">
+      <c r="Q199">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17">
       <c r="A200" s="4" t="s">
         <v>83</v>
       </c>
@@ -6547,8 +7949,12 @@
       <c r="M200" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:13">
+      <c r="Q200">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
       <c r="A201" s="4" t="s">
         <v>84</v>
       </c>
@@ -6588,8 +7994,12 @@
       <c r="M201" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13">
+      <c r="Q201">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17">
       <c r="A202" s="4" t="s">
         <v>85</v>
       </c>
@@ -6629,8 +8039,12 @@
       <c r="M202" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:13">
+      <c r="Q202">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6642,8 +8056,12 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="Q203">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17">
       <c r="A204" s="4" t="s">
         <v>62</v>
       </c>
@@ -6659,8 +8077,12 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="Q204">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
       <c r="A205" s="4" t="s">
         <v>63</v>
       </c>
@@ -6677,7 +8099,7 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:17">
       <c r="A206" s="4" t="s">
         <v>64</v>
       </c>
@@ -6694,7 +8116,7 @@
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:17">
       <c r="A207" s="4" t="s">
         <v>65</v>
       </c>
@@ -6735,7 +8157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:17">
       <c r="A208" s="4" t="s">
         <v>78</v>
       </c>
